--- a/biology/Botanique/Dittrichia_graveolens/Dittrichia_graveolens.xlsx
+++ b/biology/Botanique/Dittrichia_graveolens/Dittrichia_graveolens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dittrichia graveolens est une espèce de plante à fleurs appartenant au genre Dittrichia. C'est une plante entièrement pubescente-glanduleuse, visqueuse, à odeur forte.
 </t>
@@ -511,11 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle.
-Appareil végétatif
-Le tige est longue de 2-5 dm. dressée, très rameuse, à rameaux étalés-dressés, très feuillée. Les  feuilles sont sessiles, étroites, linéaires, aiguës, entières ou obscurément denticulées, les inférieures oblongues-linéaires.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tige est longue de 2-5 dm. dressée, très rameuse, à rameaux étalés-dressés, très feuillée. Les  feuilles sont sessiles, étroites, linéaires, aiguës, entières ou obscurément denticulées, les inférieures oblongues-linéaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fleurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs sont regroupées en capitules, l'involucre est à folioles linéaires-lancéolées, les extérieures herbacées, les intérieures scarieuses sur les bords.
 Les capitules sont petits, très nombreux, subsessiles, en longue panicule pyramidale, lâche. Les fleurs sont jaunes, ne dépassant pas l'involucre, celles de la circonférence souvent violacées.
@@ -553,31 +604,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">France : Midi, Ouest, Centre jusqu'à Paris, Corse; rare dans l'Est, le Nord et le Nord-Ouest.
 Espagne, Italie, Grèce, Turquie, Afrique septentrionale.
@@ -585,37 +638,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Habitats</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lieux incultes, pierreux.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -637,10 +659,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lieux incultes, pierreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Nuisance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Inule fétide est une plante invasive. L'importation de ses graines est interdite en Californie et en Australie.
 Pour lutter contre cette invasive, il faut l'étêter avant la floraison.
@@ -648,31 +705,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Français
 Inule odorante, inule à forte odeur
@@ -681,31 +740,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dittrichia_graveolens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Autres Inules</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Inule visqueuse (Dittrichia viscosa).</t>
         </is>
